--- a/ConfigSource/Datas/__tables__.xlsx
+++ b/ConfigSource/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25940" windowHeight="15480"/>
+    <workbookView windowWidth="30720" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -109,13 +109,31 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>ItemConfigCategory</t>
-  </si>
-  <si>
-    <t>ItemConfig</t>
-  </si>
-  <si>
-    <t>ItemConfig.xlsx</t>
+    <t>AttributeConfig</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>SkillConfig</t>
+  </si>
+  <si>
+    <t>SkillSpriteConfig</t>
+  </si>
+  <si>
+    <t>SkillEffectConfig</t>
+  </si>
+  <si>
+    <t>DamageEffectConfig</t>
+  </si>
+  <si>
+    <t>Effect/DamageEffectConfig.xlsx</t>
+  </si>
+  <si>
+    <t>AOEEffectConfig</t>
+  </si>
+  <si>
+    <t>Effect/AOEEffectConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -123,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -144,32 +162,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,24 +229,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,57 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -275,7 +255,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,6 +314,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -308,169 +380,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,36 +499,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,8 +544,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,8 +583,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,20 +1075,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="24.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.3796296296296" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.3833333333333" customWidth="1"/>
+    <col min="10" max="10" width="18.3796296296296" customWidth="1"/>
+    <col min="12" max="12" width="25.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -1175,21 +1194,125 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
-      <c r="B4" t="s">
+    <row r="4" customFormat="1" spans="2:12">
+      <c r="B4" t="str">
+        <f>C4&amp;"Category"</f>
+        <v>AttributeConfigCategory</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="str">
+        <f>C4&amp;".xlsx"</f>
+        <v>AttributeConfig.xlsx</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="str">
+        <f>C4&amp;"Category"</f>
+        <v>AttributeConfigCategory</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" t="str">
+        <f>C5&amp;"Category"</f>
+        <v>SkillConfigCategory</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="L4" t="s">
-        <v>31</v>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <f>C5&amp;".xlsx"</f>
+        <v>SkillConfig.xlsx</v>
+      </c>
+      <c r="L5" t="str">
+        <f>C5&amp;"Category"</f>
+        <v>SkillConfigCategory</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" t="str">
+        <f>C6&amp;"Category"</f>
+        <v>SkillSpriteConfigCategory</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f>C6&amp;".xlsx"</f>
+        <v>SkillSpriteConfig.xlsx</v>
+      </c>
+      <c r="L6" t="str">
+        <f>C6&amp;"Category"</f>
+        <v>SkillSpriteConfigCategory</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" t="str">
+        <f>C7&amp;"Category"</f>
+        <v>SkillEffectConfigCategory</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <f>C7&amp;".xlsx"</f>
+        <v>SkillEffectConfig.xlsx</v>
+      </c>
+      <c r="L7" t="str">
+        <f>C7&amp;"Category"</f>
+        <v>SkillEffectConfigCategory</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" t="str">
+        <f>C8&amp;"Category"</f>
+        <v>DamageEffectConfigCategory</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="str">
+        <f>C8&amp;"Category"</f>
+        <v>DamageEffectConfigCategory</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" t="str">
+        <f>C9&amp;"Category"</f>
+        <v>AOEEffectConfigCategory</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="str">
+        <f>C9&amp;"Category"</f>
+        <v>AOEEffectConfigCategory</v>
       </c>
     </row>
   </sheetData>
